--- a/processeddata.xlsx
+++ b/processeddata.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hugo\Desktop\udacity\statistic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hugo/Documents/udacity/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11385"/>
+    <workbookView xWindow="12820" yWindow="460" windowWidth="21580" windowHeight="11380"/>
   </bookViews>
   <sheets>
     <sheet name="stroopdata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -104,12 +111,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -117,7 +124,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -125,7 +132,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -134,7 +141,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -143,7 +150,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -152,7 +159,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -160,7 +167,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -176,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -184,7 +191,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -193,7 +200,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -202,7 +209,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,7 +217,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +226,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,7 +243,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +252,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,14 +260,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,7 +275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,6 +769,97 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="L7">
+            <v>5</v>
+          </cell>
+          <cell r="M7">
+            <v>0</v>
+          </cell>
+          <cell r="N7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="L8">
+            <v>10</v>
+          </cell>
+          <cell r="M8">
+            <v>4</v>
+          </cell>
+          <cell r="N8">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="L9">
+            <v>15</v>
+          </cell>
+          <cell r="M9">
+            <v>11</v>
+          </cell>
+          <cell r="N9">
+            <v>0.625</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="L10">
+            <v>20</v>
+          </cell>
+          <cell r="M10">
+            <v>8</v>
+          </cell>
+          <cell r="N10">
+            <v>0.95833333333333337</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="L11">
+            <v>25</v>
+          </cell>
+          <cell r="M11">
+            <v>1</v>
+          </cell>
+          <cell r="N11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="L12" t="str">
+            <v>More</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="N12">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,15 +1161,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -1102,12 +1200,12 @@
         <v>19.277999999999999</v>
       </c>
       <c r="D2" s="1">
-        <f>(A2-B2)^2</f>
-        <v>51.82560099999997</v>
+        <f>(A2-B2)</f>
+        <v>-7.1989999999999981</v>
       </c>
       <c r="F2" s="1">
         <f>SUM(D2:D25)/23</f>
-        <v>89.862616999999972</v>
+        <v>-8.311086956521736</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
@@ -1136,12 +1234,12 @@
         <v>18.741</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D25" si="0">(A3-B3)^2</f>
-        <v>3.8024999999999971</v>
+        <f t="shared" ref="D3:D24" si="0">(A3-B3)</f>
+        <v>-1.9499999999999993</v>
       </c>
       <c r="F3" s="1">
-        <f>SQRT(F2)</f>
-        <v>9.4795894953315347</v>
+        <f>_xlfn.STDEV.S(D2:D25)</f>
+        <v>4.8648269103590565</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -1171,11 +1269,11 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>135.72249999999997</v>
+        <v>-11.649999999999999</v>
       </c>
       <c r="F4" s="1">
         <f>F3/SQRT(24)</f>
-        <v>1.9350131028841466</v>
+        <v>0.9930286347783408</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>4</v>
@@ -1205,11 +1303,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>49.801248999999977</v>
+        <v>-7.0569999999999986</v>
       </c>
       <c r="F5" s="1">
         <f>(A27-B27)/F4</f>
-        <v>-4.116143531428861</v>
+        <v>-8.020706944109957</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
@@ -1238,7 +1336,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>66.161956000000004</v>
+        <v>-8.1340000000000003</v>
       </c>
       <c r="F6" s="1">
         <v>0.05</v>
@@ -1270,7 +1368,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>74.649600000000007</v>
+        <v>-8.64</v>
       </c>
       <c r="F7" s="1">
         <v>23</v>
@@ -1302,7 +1400,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>97.614399999999975</v>
+        <v>-9.879999999999999</v>
       </c>
       <c r="F8" s="1">
         <v>2.069</v>
@@ -1335,11 +1433,11 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>70.677648999999974</v>
+        <v>-8.4069999999999983</v>
       </c>
       <c r="F9" s="1">
         <f>(A27-B27)/F3</f>
-        <v>-0.84020428000486025</v>
+        <v>-1.6372199491222625</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
@@ -1369,11 +1467,11 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>129.07232100000002</v>
+        <v>-11.361000000000001</v>
       </c>
       <c r="F10" s="1">
         <f>F5^2/(F5^2+F7)</f>
-        <v>0.42417423088472805</v>
+        <v>0.73663641614450603</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>19</v>
@@ -1403,7 +1501,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>139.287204</v>
+        <v>-11.802</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="1"/>
@@ -1423,7 +1521,11 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>4.8224160000000067</v>
+        <v>-2.1960000000000015</v>
+      </c>
+      <c r="F12" s="1">
+        <f>D27-F8*F4</f>
+        <v>-10.019367912023052</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="1"/>
@@ -1443,7 +1545,11 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>11.195715999999988</v>
+        <v>-3.3459999999999983</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D27+F8*F4</f>
+        <v>-5.9102154213102764</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="1"/>
@@ -1463,7 +1569,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>5.9389690000000055</v>
+        <v>-2.4370000000000012</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="1"/>
@@ -1483,7 +1589,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>11.566800999999998</v>
+        <v>-3.4009999999999998</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="1"/>
@@ -1503,7 +1609,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>290.8730250000001</v>
+        <v>-17.055000000000003</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
@@ -1523,7 +1629,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>100.56078400000001</v>
+        <v>-10.028</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="1"/>
@@ -1543,7 +1649,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>44.142735999999978</v>
+        <v>-6.6439999999999984</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="1"/>
@@ -1563,7 +1669,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>95.844099999999983</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="1"/>
@@ -1583,7 +1689,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>36.978561000000013</v>
+        <v>-6.0810000000000013</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="1"/>
@@ -1603,7 +1709,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>480.44256099999984</v>
+        <v>-21.918999999999997</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="1"/>
@@ -1623,7 +1729,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>119.90249999999995</v>
+        <v>-10.949999999999998</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="1"/>
@@ -1643,7 +1749,7 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>13.890529000000003</v>
+        <v>-3.7270000000000003</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
@@ -1663,7 +1769,7 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>5.5131039999999949</v>
+        <v>-2.347999999999999</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
@@ -1682,8 +1788,8 @@
         <v>21.157</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>26.553408999999988</v>
+        <f>(A25-B25)</f>
+        <v>-5.1529999999999987</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="1"/>
@@ -1702,6 +1808,10 @@
       <c r="B27" s="1">
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
+      </c>
+      <c r="D27" s="1">
+        <f>AVERAGE(D2:D25)</f>
+        <v>-7.964791666666664</v>
       </c>
     </row>
   </sheetData>
